--- a/datasets/websites.xlsx
+++ b/datasets/websites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC3D654-0369-4154-A22D-59DBA02D6430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802363E2-EA0D-48EA-8E10-992D34DC3FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{4AEE1206-ABDE-4217-94C2-BC00B9084E6D}"/>
+    <workbookView xWindow="6787" yWindow="532" windowWidth="21623" windowHeight="11206" xr2:uid="{4AEE1206-ABDE-4217-94C2-BC00B9084E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
     <t>https://www.example.com</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>https://www.example15.com</t>
   </si>
   <si>
-    <t>Visitors</t>
-  </si>
-  <si>
     <t>https://www.example16.com</t>
   </si>
   <si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>https://www.example26.com</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>visitors</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90518AA-B48E-430B-B1CE-C5C662935E42}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.4" x14ac:dyDescent="1"/>
@@ -529,24 +529,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4.5</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3.2</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="1">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>4.8</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4.2</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2.9</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="1">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>4.5999999999999996</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>3.7</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>6000</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="1">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>3.9</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="1">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>4.3</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>3.6</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="1">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2.5</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="1">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>4.7</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="1">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>3.8</v>
@@ -736,10 +736,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="1">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>4.5999999999999996</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="1">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>3.9</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="1">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>4.2</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="1">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>3.5</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="1">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>4.4000000000000004</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="1">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>3.7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="1">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>4.0999999999999996</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="1">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>4.3</v>
@@ -859,10 +859,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="1">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3.3</v>
       </c>
       <c r="D25">
         <v>8000</v>
@@ -870,10 +873,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="1">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>4.2</v>
@@ -884,10 +887,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="1">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>4.8</v>
@@ -898,10 +901,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="1">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>2.1</v>
@@ -912,10 +915,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="1">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>4.5</v>
@@ -923,10 +926,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="1">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>4.0999999999999996</v>
@@ -937,10 +940,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="1">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>2.7</v>
@@ -951,10 +954,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="1">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>4.4000000000000004</v>
@@ -965,10 +968,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="1">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>3.9</v>
@@ -979,18 +982,27 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="1">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>9200</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="1">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>3.5</v>
+      </c>
+      <c r="D35">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
